--- a/Excel/Digital_Landscape_GIZ_List_V0.4.xlsx
+++ b/Excel/Digital_Landscape_GIZ_List_V0.4.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gizonline-my.sharepoint.com/personal/benjamin_gross_giz_de/Documents/Documents/eHealth Applications/Digitalization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gross_ben\OneDrive - Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH\Documents\eHealth Applications\Digitalization\DigiAI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{20E0F9C3-74D1-4A6A-AAD5-49F7AA2A9DF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA7AA724-31E9-4B0C-909F-A79D717E289D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{20E0F9C3-74D1-4A6A-AAD5-49F7AA2A9DF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB0815D-85AB-4455-BAB8-5B04C8DED728}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5385" xr2:uid="{A0BF2365-B93E-4200-9E25-FEC2D1E2143A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Digital Landscape GIZ List" sheetId="3" r:id="rId1"/>
+    <sheet name="Heat Map" sheetId="4" r:id="rId1"/>
+    <sheet name="Digital Landscape GIZ List" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1436,10 +1437,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98CC7E0-7CF0-4445-A2ED-4151A945864C}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A92713A-D65E-4772-B494-846EF29E6AF4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView showRowColHeaders="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -3110,6 +3125,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="76600a9c-50f1-43e6-9b23-314285ec731b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010090AADB93FB85D74DA9A9575F8C3C10BE" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6db8a65c10ac69a9d1ac1b435bc9075c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cc950d57-3a31-4b6e-b0a0-85ef4c4ac57e" xmlns:ns4="76600a9c-50f1-43e6-9b23-314285ec731b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbab77471ae60082cfe8d274be371c16" ns3:_="" ns4:_="">
     <xsd:import namespace="cc950d57-3a31-4b6e-b0a0-85ef4c4ac57e"/>
@@ -3350,24 +3382,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F000945-162D-4BB7-A398-F85C3135192D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="76600a9c-50f1-43e6-9b23-314285ec731b"/>
+    <ds:schemaRef ds:uri="cc950d57-3a31-4b6e-b0a0-85ef4c4ac57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="76600a9c-50f1-43e6-9b23-314285ec731b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E01C7FD6-549C-4B08-B2C0-879DB73C77BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{595B8CE4-CDB8-44EC-9E57-61A7B13F63D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3384,29 +3424,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E01C7FD6-549C-4B08-B2C0-879DB73C77BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F000945-162D-4BB7-A398-F85C3135192D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="76600a9c-50f1-43e6-9b23-314285ec731b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="cc950d57-3a31-4b6e-b0a0-85ef4c4ac57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel/Digital_Landscape_GIZ_List_V0.4.xlsx
+++ b/Excel/Digital_Landscape_GIZ_List_V0.4.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gross_ben\OneDrive - Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH\Documents\eHealth Applications\Digitalization\DigiAI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\iCloud\Python\Streamlit\DigiAI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{20E0F9C3-74D1-4A6A-AAD5-49F7AA2A9DF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB0815D-85AB-4455-BAB8-5B04C8DED728}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C66083A-8583-4D5B-AE28-E26E07316814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5385" xr2:uid="{A0BF2365-B93E-4200-9E25-FEC2D1E2143A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{A0BF2365-B93E-4200-9E25-FEC2D1E2143A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Heat Map" sheetId="4" r:id="rId1"/>
-    <sheet name="Digital Landscape GIZ List" sheetId="3" r:id="rId2"/>
+    <sheet name="Digital Landscape GIZ List" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,9 +41,6 @@
     <t>Initiative</t>
   </si>
   <si>
-    <t>Mail address</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -1009,6 +1005,9 @@
   </si>
   <si>
     <t>Internet for everyone | BMZ Digital.Global (bmz-digital.global)</t>
+  </si>
+  <si>
+    <t>Mail addresses</t>
   </si>
 </sst>
 </file>
@@ -1108,18 +1107,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1437,25 +1431,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98CC7E0-7CF0-4445-A2ED-4151A945864C}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A92713A-D65E-4772-B494-846EF29E6AF4}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,1598 +1461,1591 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="E19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="E20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="K26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="G32" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" t="s">
         <v>242</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="E33" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" t="s">
+        <v>296</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3125,14 +3099,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="76600a9c-50f1-43e6-9b23-314285ec731b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3141,7 +3107,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010090AADB93FB85D74DA9A9575F8C3C10BE" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6db8a65c10ac69a9d1ac1b435bc9075c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cc950d57-3a31-4b6e-b0a0-85ef4c4ac57e" xmlns:ns4="76600a9c-50f1-43e6-9b23-314285ec731b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbab77471ae60082cfe8d274be371c16" ns3:_="" ns4:_="">
     <xsd:import namespace="cc950d57-3a31-4b6e-b0a0-85ef4c4ac57e"/>
@@ -3382,24 +3348,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F000945-162D-4BB7-A398-F85C3135192D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="76600a9c-50f1-43e6-9b23-314285ec731b"/>
-    <ds:schemaRef ds:uri="cc950d57-3a31-4b6e-b0a0-85ef4c4ac57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="76600a9c-50f1-43e6-9b23-314285ec731b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E01C7FD6-549C-4B08-B2C0-879DB73C77BE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3407,7 +3364,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{595B8CE4-CDB8-44EC-9E57-61A7B13F63D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3424,4 +3381,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F000945-162D-4BB7-A398-F85C3135192D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="76600a9c-50f1-43e6-9b23-314285ec731b"/>
+    <ds:schemaRef ds:uri="cc950d57-3a31-4b6e-b0a0-85ef4c4ac57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel/Digital_Landscape_GIZ_List_V0.4.xlsx
+++ b/Excel/Digital_Landscape_GIZ_List_V0.4.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\iCloud\Python\Streamlit\DigiAI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C66083A-8583-4D5B-AE28-E26E07316814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C795ACED-CCC5-4819-AC4D-AE8D04697DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{A0BF2365-B93E-4200-9E25-FEC2D1E2143A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Digital Landscape GIZ List" sheetId="3" r:id="rId1"/>
+    <sheet name="Digital Landscape GIZ" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3099,12 +3099,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="76600a9c-50f1-43e6-9b23-314285ec731b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3349,17 +3348,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="76600a9c-50f1-43e6-9b23-314285ec731b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E01C7FD6-549C-4B08-B2C0-879DB73C77BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F000945-162D-4BB7-A398-F85C3135192D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="76600a9c-50f1-43e6-9b23-314285ec731b"/>
+    <ds:schemaRef ds:uri="cc950d57-3a31-4b6e-b0a0-85ef4c4ac57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3384,18 +3393,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F000945-162D-4BB7-A398-F85C3135192D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E01C7FD6-549C-4B08-B2C0-879DB73C77BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="76600a9c-50f1-43e6-9b23-314285ec731b"/>
-    <ds:schemaRef ds:uri="cc950d57-3a31-4b6e-b0a0-85ef4c4ac57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>